--- a/MCFlashCards/bin/Release/math test.xlsx
+++ b/MCFlashCards/bin/Release/math test.xlsx
@@ -1,88 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB845268-B74C-4683-A3FA-256541464109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Math</t>
   </si>
   <si>
-    <t>1+3</t>
-  </si>
-  <si>
-    <t>1+5</t>
-  </si>
-  <si>
-    <t>2+1</t>
-  </si>
-  <si>
-    <t>2+2</t>
-  </si>
-  <si>
-    <t>3+1</t>
-  </si>
-  <si>
-    <t>3+2</t>
-  </si>
-  <si>
-    <t>2+3</t>
-  </si>
-  <si>
-    <t>5+1</t>
-  </si>
-  <si>
-    <t>4+1</t>
-  </si>
-  <si>
-    <t>1+4</t>
-  </si>
-  <si>
-    <t>4+2</t>
-  </si>
-  <si>
-    <t>2+4</t>
-  </si>
-  <si>
-    <t>3*2</t>
-  </si>
-  <si>
-    <t>2*3</t>
-  </si>
-  <si>
-    <t>2*2</t>
-  </si>
-  <si>
-    <t>1*3</t>
-  </si>
-  <si>
-    <t>3*1</t>
-  </si>
-  <si>
-    <t>4*1</t>
-  </si>
-  <si>
-    <t>5*1</t>
+    <t>Input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,15 +68,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -166,7 +130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,9 +162,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,6 +214,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,266 +407,297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>CONCATENATE(E2,"*",F2)</f>
+        <v>0*0</v>
+      </c>
+      <c r="B2">
+        <f>G2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>$L$2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>F2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A32" si="0">CONCATENATE(E3,"*",F3)</f>
+        <v>1*0</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B14" si="1">G3</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F14" si="2">$L$2</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G14" si="3">F3*E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>2*0</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>3*0</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>4*0</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>5*0</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>6*0</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>7*0</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>40757</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>40758</v>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>8*0</v>
       </c>
       <c r="B10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>40759</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>9*0</v>
       </c>
       <c r="B11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>40728</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>10*0</v>
       </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>40727</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>11*0</v>
       </c>
       <c r="B13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>40726</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>12*0</v>
       </c>
       <c r="B14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>40725</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>40665</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>40664</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>12</v>
       </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>40634</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>40696</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>40757</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -675,24 +706,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
